--- a/Output/HMI_Alarms/UpstreamConstants.xlsx
+++ b/Output/HMI_Alarms/UpstreamConstants.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
